--- a/generate-log-service/output_tencent_format.xlsx
+++ b/generate-log-service/output_tencent_format.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="233">
   <si>
     <t/>
   </si>
@@ -20,12 +20,6 @@
     <t>AccountCreate</t>
   </si>
   <si>
-    <t>ieventId</t>
-  </si>
-  <si>
-    <t>游戏事件ID</t>
-  </si>
-  <si>
     <t>iworldid</t>
   </si>
   <si>
@@ -179,6 +173,12 @@
     <t>iparam_14</t>
   </si>
   <si>
+    <t>iparam_15</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
     <t>RoleLogout</t>
   </si>
   <si>
@@ -194,9 +194,6 @@
     <t>登出时的场景Y</t>
   </si>
   <si>
-    <t>iparam_15</t>
-  </si>
-  <si>
     <t>iparam_16</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
     <t>当天活跃值</t>
   </si>
   <si>
+    <t>ireserve_2</t>
+  </si>
+  <si>
     <t>CreateRole</t>
   </si>
   <si>
@@ -254,9 +254,6 @@
     <t>Recharge</t>
   </si>
   <si>
-    <t>操作ID</t>
-  </si>
-  <si>
     <t>vparam_2</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
   </si>
   <si>
     <t>Exam</t>
-  </si>
-  <si>
-    <t>国家</t>
   </si>
   <si>
     <t>本次答题得分</t>
@@ -814,16 +808,10 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>5.0</v>
@@ -856,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
@@ -867,16 +855,10 @@
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5.0</v>
@@ -903,45 +885,39 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>6.0</v>
@@ -968,25 +944,25 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>27</v>
@@ -998,31 +974,31 @@
         <v>29</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>35</v>
@@ -1079,13 +1055,13 @@
         <v>52</v>
       </c>
       <c r="AU4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1117,100 +1093,100 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>48</v>
@@ -1231,7 +1207,7 @@
         <v>39</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>41</v>
@@ -1258,25 +1234,25 @@
         <v>63</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="BF5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1308,40 +1284,34 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1373,63 +1343,57 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1462,25 +1426,25 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>27</v>
@@ -1492,31 +1456,31 @@
         <v>29</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>35</v>
@@ -1573,19 +1537,13 @@
         <v>52</v>
       </c>
       <c r="AU8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AV8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="AW8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1599,49 +1557,49 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>82</v>
@@ -1653,7 +1611,7 @@
         <v>83</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>84</v>
@@ -1665,27 +1623,21 @@
         <v>85</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10.0</v>
@@ -1694,52 +1646,52 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>15</v>
@@ -1748,33 +1700,27 @@
         <v>90</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AA10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10.0</v>
@@ -1783,16 +1729,16 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
@@ -1801,27 +1747,21 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10.0</v>
@@ -1848,49 +1788,49 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>98</v>
@@ -1902,33 +1842,27 @@
         <v>99</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10.0</v>
@@ -1955,49 +1889,49 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>98</v>
@@ -2009,33 +1943,27 @@
         <v>99</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10.0</v>
@@ -2062,49 +1990,49 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>98</v>
@@ -2116,33 +2044,27 @@
         <v>99</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>11.0</v>
@@ -2169,19 +2091,19 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>27</v>
@@ -2193,10 +2115,10 @@
         <v>29</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>15</v>
@@ -2205,7 +2127,7 @@
         <v>107</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>108</v>
@@ -2217,21 +2139,21 @@
         <v>109</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>12.0</v>
@@ -2258,19 +2180,19 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>27</v>
@@ -2282,10 +2204,10 @@
         <v>29</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>15</v>
@@ -2294,7 +2216,7 @@
         <v>107</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>108</v>
@@ -2306,21 +2228,21 @@
         <v>109</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>13.0</v>
@@ -2332,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -2347,37 +2269,37 @@
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>113</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>114</v>
@@ -2389,15 +2311,15 @@
         <v>115</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>13.0</v>
@@ -2409,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -2424,37 +2346,37 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>113</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>114</v>
@@ -2466,15 +2388,15 @@
         <v>115</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>14.0</v>
@@ -2486,72 +2408,66 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>119</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>14.0</v>
@@ -2563,72 +2479,66 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>119</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>15.0</v>
@@ -2640,84 +2550,78 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>125</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>126</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>15.0</v>
@@ -2729,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>4</v>
@@ -2744,34 +2648,34 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>15</v>
@@ -2780,21 +2684,15 @@
         <v>130</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>16.0</v>
@@ -2806,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>4</v>
@@ -2821,34 +2719,34 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R23" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>15</v>
@@ -2857,21 +2755,15 @@
         <v>134</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>16.0</v>
@@ -2883,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>4</v>
@@ -2898,43 +2790,43 @@
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>138</v>
@@ -2946,21 +2838,15 @@
         <v>139</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>17.0</v>
@@ -2972,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
@@ -2987,34 +2873,34 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R25" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>15</v>
@@ -3023,7 +2909,7 @@
         <v>143</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>144</v>
@@ -3035,21 +2921,15 @@
         <v>145</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>17.0</v>
@@ -3061,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>4</v>
@@ -3076,43 +2956,43 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R26" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>149</v>
@@ -3124,21 +3004,15 @@
         <v>150</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>17.0</v>
@@ -3150,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -3165,34 +3039,34 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R27" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>15</v>
@@ -3200,16 +3074,10 @@
       <c r="U27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>17.0</v>
@@ -3221,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
@@ -3236,34 +3104,34 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>15</v>
@@ -3271,16 +3139,10 @@
       <c r="U28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17.0</v>
@@ -3292,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>4</v>
@@ -3307,34 +3169,34 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>15</v>
@@ -3342,16 +3204,10 @@
       <c r="U29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18.0</v>
@@ -3363,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>4</v>
@@ -3378,34 +3234,34 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R30" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>15</v>
@@ -3413,16 +3269,10 @@
       <c r="U30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19.0</v>
@@ -3434,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>4</v>
@@ -3449,34 +3299,34 @@
         <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>15</v>
@@ -3485,7 +3335,7 @@
         <v>166</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>167</v>
@@ -3496,16 +3346,10 @@
       <c r="Y31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20.0</v>
@@ -3517,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -3532,34 +3376,34 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>15</v>
@@ -3568,7 +3412,7 @@
         <v>166</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>167</v>
@@ -3579,16 +3423,10 @@
       <c r="Y32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>21.0</v>
@@ -3600,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
@@ -3615,34 +3453,34 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>15</v>
@@ -3651,7 +3489,7 @@
         <v>166</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>167</v>
@@ -3660,24 +3498,18 @@
         <v>21</v>
       </c>
       <c r="Y33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>22.0</v>
@@ -3689,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>
@@ -3704,34 +3536,34 @@
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R34" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>15</v>
@@ -3740,21 +3572,15 @@
         <v>174</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>23.0</v>
@@ -3766,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
@@ -3781,45 +3607,39 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R35" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>24.0</v>
@@ -3828,16 +3648,16 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>4</v>
@@ -3846,22 +3666,22 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>15</v>
@@ -3870,39 +3690,33 @@
         <v>180</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>181</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="W36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>25.0</v>
@@ -3911,16 +3725,16 @@
         <v>0.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>4</v>
@@ -3929,22 +3743,22 @@
         <v>5</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>15</v>
@@ -3953,21 +3767,15 @@
         <v>184</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>26.0</v>
@@ -3976,16 +3784,16 @@
         <v>0.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>4</v>
@@ -3994,22 +3802,22 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>15</v>
@@ -4018,21 +3826,15 @@
         <v>187</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>27.0</v>
@@ -4041,33 +3843,27 @@
         <v>0.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>28.0</v>
@@ -4076,16 +3872,16 @@
         <v>0.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>4</v>
@@ -4094,34 +3890,34 @@
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R40" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>15</v>
@@ -4130,27 +3926,27 @@
         <v>193</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>194</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>195</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>29.0</v>
@@ -4159,16 +3955,16 @@
         <v>0.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>4</v>
@@ -4177,22 +3973,22 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>15</v>
@@ -4201,19 +3997,19 @@
         <v>198</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>200</v>
@@ -4246,18 +4042,12 @@
         <v>44</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>30.0</v>
@@ -4266,16 +4056,16 @@
         <v>0.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>4</v>
@@ -4284,45 +4074,39 @@
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>31.0</v>
@@ -4331,16 +4115,16 @@
         <v>0.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>4</v>
@@ -4349,51 +4133,45 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="Q43" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>32.0</v>
@@ -4402,16 +4180,16 @@
         <v>0.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>4</v>
@@ -4420,51 +4198,45 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="Q44" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>33.0</v>
@@ -4473,16 +4245,16 @@
         <v>0.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>4</v>
@@ -4491,51 +4263,45 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N45" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>34.0</v>
@@ -4544,16 +4310,16 @@
         <v>0.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>4</v>
@@ -4562,51 +4328,45 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N46" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>35.0</v>
@@ -4615,16 +4375,16 @@
         <v>0.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>4</v>
@@ -4633,51 +4393,45 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N47" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>36.0</v>
@@ -4689,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>4</v>
@@ -4704,21 +4458,15 @@
         <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>37.0</v>
@@ -4727,16 +4475,16 @@
         <v>0.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>4</v>
@@ -4745,57 +4493,57 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>38.0</v>
@@ -4804,16 +4552,16 @@
         <v>0.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>4</v>
@@ -4822,57 +4570,57 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R50" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>39.0</v>
@@ -4881,16 +4629,16 @@
         <v>0.0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>4</v>
@@ -4899,57 +4647,57 @@
         <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R51" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>40.0</v>
@@ -4958,16 +4706,16 @@
         <v>0.0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>4</v>
@@ -4976,46 +4724,46 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R52" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
